--- a/work/fine_results.xlsx
+++ b/work/fine_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B4417A9-5894-4FB1-9D9F-1363B86B653B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{428B9618-B683-45C7-B3F5-25EAAD78BF3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Descr.</t>
   </si>
@@ -89,16 +89,26 @@
   </si>
   <si>
     <t>rtl cpa</t>
+  </si>
+  <si>
+    <t>CSA mixed tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,9 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M15"/>
+  <dimension ref="A3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,40 +557,41 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>70.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>111.3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>2914</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>1.7390625</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>-0.34390473944824329</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
         <f t="shared" ref="L6:L15" si="3">512*D6/65*F6*1000000/1024/1024</f>
         <v>836.08774038461536</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" si="2"/>
         <v>0.59679564172958122</v>
       </c>
@@ -587,40 +600,41 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>68.94</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>109.54</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>2895</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>1.7115625000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>-0.35427965102570136</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>822.86658653846155</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="2"/>
         <v>0.59121329879101903</v>
       </c>
@@ -908,6 +922,12 @@
       <c r="A15">
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
       <c r="D15">
         <v>8</v>
       </c>
@@ -935,6 +955,177 @@
       <c r="M15">
         <f t="shared" si="2"/>
         <v>0.42358000814332247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>128.37</v>
+      </c>
+      <c r="F17">
+        <v>199.72</v>
+      </c>
+      <c r="G17">
+        <v>2779</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H16:H21" si="4">F17/64*D17</f>
+        <v>3.120625</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I16:I21" si="5">H17/$H$4-1</f>
+        <v>0.17731667059655742</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L16:L21" si="6">512*D17/65*F17*1000000/1024/1024</f>
+        <v>1500.3004807692309</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M16:M21" si="7">H17/G17*1000</f>
+        <v>1.1229309103994243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>77.05</v>
+      </c>
+      <c r="F18">
+        <v>118.79</v>
+      </c>
+      <c r="G18">
+        <v>3558</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>3.7121875000000002</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40049516623437897</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>1784.705528846154</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="7"/>
+        <v>1.0433354412591342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>39.58</v>
+      </c>
+      <c r="F19">
+        <v>61.31</v>
+      </c>
+      <c r="G19">
+        <v>4858</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>3.8318750000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44564961094081612</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>1842.2475961538464</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>0.78877624536846436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>21.5</v>
+      </c>
+      <c r="F20">
+        <v>33.19</v>
+      </c>
+      <c r="G20">
+        <v>7535</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>4.1487499999999997</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56519688752652675</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>1994.591346153846</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="7"/>
+        <v>0.55059721300597209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/work/fine_results.xlsx
+++ b/work/fine_results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{428B9618-B683-45C7-B3F5-25EAAD78BF3F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{498B3005-8AAA-4D4D-A96D-17EBB0E9D3DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>Descr.</t>
   </si>
@@ -92,13 +92,148 @@
   </si>
   <si>
     <t>CSA mixed tree</t>
+  </si>
+  <si>
+    <t>Latest tests</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>singl mf</t>
+  </si>
+  <si>
+    <t>modelsim model fail</t>
+  </si>
+  <si>
+    <t>par add mf</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>suka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSLA </t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>Mixed CSA</t>
+  </si>
+  <si>
+    <t>rtl+reorder</t>
+  </si>
+  <si>
+    <t>reorder</t>
+  </si>
+  <si>
+    <t>RTL reorder</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CSLA_CLA</t>
+  </si>
+  <si>
+    <t>CSLA_RCA</t>
+  </si>
+  <si>
+    <t>Fast Fmax</t>
+  </si>
+  <si>
+    <t>Slow Fmax</t>
+  </si>
+  <si>
+    <t>MIXED_CSA</t>
+  </si>
+  <si>
+    <t>Приріст</t>
+  </si>
+  <si>
+    <t>Хеш\с * 10^6</t>
+  </si>
+  <si>
+    <t>Кількість LUT</t>
+  </si>
+  <si>
+    <t>Використаний параметр</t>
+  </si>
+  <si>
+    <t>ALTERA_SNGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTERA_PAR </t>
+  </si>
+  <si>
+    <t>Хеш\LUT</t>
+  </si>
+  <si>
+    <t>CSA REORDER</t>
+  </si>
+  <si>
+    <t>RTL REORDER</t>
+  </si>
+  <si>
+    <t>ALTERA_PAR  REORDER</t>
+  </si>
+  <si>
+    <t>ALTERA_SNGL REORDER</t>
+  </si>
+  <si>
+    <t>RTL 1 round</t>
+  </si>
+  <si>
+    <t>RTL 4 round</t>
+  </si>
+  <si>
+    <t>RTL 2 round</t>
+  </si>
+  <si>
+    <t>RTL 8 round</t>
+  </si>
+  <si>
+    <t>ALTERA_PAR 1 round</t>
+  </si>
+  <si>
+    <t>ALTERA_PAR 2 round</t>
+  </si>
+  <si>
+    <t>ALTERA_PAR 4 round</t>
+  </si>
+  <si>
+    <t>ALTERA_PAR 8 round</t>
+  </si>
+  <si>
+    <t>CSA 1 round</t>
+  </si>
+  <si>
+    <t>CSA 2 round</t>
+  </si>
+  <si>
+    <t>CSA 4 round</t>
+  </si>
+  <si>
+    <t>Lattice RTL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +248,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -130,18 +285,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M21"/>
+  <dimension ref="A3:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +1413,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -983,23 +1433,23 @@
         <v>2779</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H16:H21" si="4">F17/64*D17</f>
+        <f t="shared" ref="H17:H21" si="4">F17/64*D17</f>
         <v>3.120625</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I16:I21" si="5">H17/$H$4-1</f>
+        <f t="shared" ref="I17:I21" si="5">H17/$H$4-1</f>
         <v>0.17731667059655742</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L16:L21" si="6">512*D17/65*F17*1000000/1024/1024</f>
+        <f t="shared" ref="L17:L21" si="6">512*D17/65*F17*1000000/1024/1024</f>
         <v>1500.3004807692309</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M16:M21" si="7">H17/G17*1000</f>
+        <f t="shared" ref="M17:M21" si="7">H17/G17*1000</f>
         <v>1.1229309103994243</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1035,7 +1485,7 @@
         <v>1.0433354412591342</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1071,7 +1521,7 @@
         <v>0.78877624536846436</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1107,7 +1557,7 @@
         <v>0.55059721300597209</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1128,7 +1578,1909 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>83.44</v>
+      </c>
+      <c r="F30">
+        <v>173.22</v>
+      </c>
+      <c r="G30">
+        <v>2593</v>
+      </c>
+      <c r="H30">
+        <f>F30/64*D30</f>
+        <v>2.7065625</v>
+      </c>
+      <c r="I30" s="1">
+        <f>H30/$H$30-1</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>512*D30/65*F30*1000000/1024/1024</f>
+        <v>1301.2319711538462</v>
+      </c>
+      <c r="M30">
+        <f>H30/G30*1000</f>
+        <v>1.0437957963748552</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>83.44</v>
+      </c>
+      <c r="R30" s="5">
+        <v>173.22</v>
+      </c>
+      <c r="S30" s="5">
+        <v>2593</v>
+      </c>
+      <c r="T30" s="5">
+        <f>R30/66*P30</f>
+        <v>2.6245454545454545</v>
+      </c>
+      <c r="U30" s="6">
+        <f>T30/$T$30-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>45.82</v>
+      </c>
+      <c r="F31">
+        <v>97.88</v>
+      </c>
+      <c r="G31">
+        <v>3083</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H43" si="8">F31/64*D31</f>
+        <v>3.0587499999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31:I57" si="9">H31/$H$30-1</f>
+        <v>0.13012354231612977</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L43" si="10">512*D31/65*F31*1000000/1024/1024</f>
+        <v>1470.5528846153845</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31:M43" si="11">H31/G31*1000</f>
+        <v>0.99213428478754462</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>101.43</v>
+      </c>
+      <c r="R31" s="5">
+        <v>212.59</v>
+      </c>
+      <c r="S31" s="5">
+        <v>2622</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" ref="T31:T39" si="12">R31/66*P31</f>
+        <v>3.2210606060606062</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" ref="U31:U39" si="13">T31/$T$30-1</f>
+        <v>0.22728322364623033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>23.73</v>
+      </c>
+      <c r="F32">
+        <v>50.5</v>
+      </c>
+      <c r="G32">
+        <v>4221</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>3.15625</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1661470961782705</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>1517.4278846153848</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>0.74774934849561714</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>111.69</v>
+      </c>
+      <c r="R32" s="5">
+        <v>235.9</v>
+      </c>
+      <c r="S32" s="5">
+        <v>2694</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="12"/>
+        <v>3.5742424242424242</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="13"/>
+        <v>0.36185198014086128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>12.57</v>
+      </c>
+      <c r="F33">
+        <v>26.64</v>
+      </c>
+      <c r="G33">
+        <v>6155</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>3.33</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="9"/>
+        <v>0.23034291652234162</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>1600.9615384615386</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>0.54102355808285951</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>67.45</v>
+      </c>
+      <c r="R33" s="5">
+        <v>146.99</v>
+      </c>
+      <c r="S33" s="5">
+        <v>4418</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="12"/>
+        <v>2.2271212121212121</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.15142593234037638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>101.43</v>
+      </c>
+      <c r="F34">
+        <v>212.59</v>
+      </c>
+      <c r="G34">
+        <v>2622</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>3.3217187500000001</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="9"/>
+        <v>0.22728322364623033</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="10"/>
+        <v>1596.9801682692307</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="11"/>
+        <v>1.2668645118230359</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>57.45</v>
+      </c>
+      <c r="R34" s="5">
+        <v>122.31</v>
+      </c>
+      <c r="S34" s="5">
+        <v>3524</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="12"/>
+        <v>1.8531818181818183</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.29390370626948381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M35" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>58.84</v>
+      </c>
+      <c r="R35" s="5">
+        <v>128.47</v>
+      </c>
+      <c r="S35" s="5">
+        <v>3564</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" si="12"/>
+        <v>1.9465151515151515</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.2583419928414733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>47.29</v>
+      </c>
+      <c r="R36" s="5">
+        <v>106.17</v>
+      </c>
+      <c r="S36" s="5">
+        <v>3071</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="12"/>
+        <v>1.6086363636363636</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.38708001385521307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>102.65</v>
+      </c>
+      <c r="R37" s="5">
+        <v>216.73</v>
+      </c>
+      <c r="S37" s="5">
+        <v>2537</v>
+      </c>
+      <c r="T37" s="5">
+        <f t="shared" si="12"/>
+        <v>3.2837878787878787</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25118346611245812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>111.69</v>
+      </c>
+      <c r="F38">
+        <v>235.9</v>
+      </c>
+      <c r="G38">
+        <v>2694</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>3.6859375000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="9"/>
+        <v>0.36185198014086128</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>1772.0853365384617</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="11"/>
+        <v>1.3682024870081664</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>97.01</v>
+      </c>
+      <c r="R38" s="5">
+        <v>200.6</v>
+      </c>
+      <c r="S38" s="5">
+        <v>2789</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="12"/>
+        <v>3.0393939393939391</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="13"/>
+        <v>0.15806488858099521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>60.19</v>
+      </c>
+      <c r="F39">
+        <v>125.38</v>
+      </c>
+      <c r="G39">
+        <v>3297</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>3.9181249999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="9"/>
+        <v>0.44763884078051031</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>1883.7139423076924</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="11"/>
+        <v>1.1883909614801336</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>105.36</v>
+      </c>
+      <c r="R39" s="5">
+        <v>224.87</v>
+      </c>
+      <c r="S39" s="5">
+        <v>2774</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="12"/>
+        <v>3.4071212121212122</v>
+      </c>
+      <c r="U39" s="6">
+        <f t="shared" si="13"/>
+        <v>0.29817573028518662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>32.22</v>
+      </c>
+      <c r="F40">
+        <v>67.95</v>
+      </c>
+      <c r="G40">
+        <v>4474</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>4.2468750000000002</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="9"/>
+        <v>0.56910287495670264</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>2041.7668269230774</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>0.949234465802414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>17.53</v>
+      </c>
+      <c r="F41">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="G41">
+        <v>6717</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>4.6275000000000004</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="9"/>
+        <v>0.70973328714929007</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>2224.7596153846157</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>0.6889236266190264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>67.45</v>
+      </c>
+      <c r="F42" s="4">
+        <v>146.99</v>
+      </c>
+      <c r="G42" s="4">
+        <v>4418</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="8"/>
+        <v>2.2967187500000001</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.15142593234037638</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
+        <f t="shared" si="10"/>
+        <v>1104.1917067307695</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="11"/>
+        <v>0.5198548551380715</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>57.45</v>
+      </c>
+      <c r="F43" s="4">
+        <v>122.31</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3524</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="8"/>
+        <v>1.91109375</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.29390370626948392</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
+        <f t="shared" si="10"/>
+        <v>918.79507211538464</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="11"/>
+        <v>0.54230810158910325</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>83.44</v>
+      </c>
+      <c r="R43" s="15">
+        <v>173.22</v>
+      </c>
+      <c r="S43" s="15">
+        <v>2593</v>
+      </c>
+      <c r="T43" s="18">
+        <v>2.6245454545454545</v>
+      </c>
+      <c r="U43" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="V43" s="25">
+        <f>T43/S43*1000000</f>
+        <v>1012.1656207271325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>58.84</v>
+      </c>
+      <c r="F44" s="4">
+        <v>128.47</v>
+      </c>
+      <c r="G44" s="4">
+        <v>3564</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" ref="H44:H53" si="14">F44/64*D44</f>
+        <v>2.00734375</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.2583419928414733</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <f t="shared" ref="L44:L53" si="15">512*D44/65*F44*1000000/1024/1024</f>
+        <v>965.06911057692309</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" ref="M44:M53" si="16">H44/G44*1000</f>
+        <v>0.56322776374859707</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>111.69</v>
+      </c>
+      <c r="R44" s="7">
+        <v>235.9</v>
+      </c>
+      <c r="S44" s="7">
+        <v>2694</v>
+      </c>
+      <c r="T44" s="19">
+        <v>3.5742424242424242</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0.36185198014086128</v>
+      </c>
+      <c r="V44" s="21">
+        <f t="shared" ref="V44:V52" si="17">T44/S44*1000000</f>
+        <v>1326.7418055836763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>47.29</v>
+      </c>
+      <c r="F45" s="4">
+        <v>106.17</v>
+      </c>
+      <c r="G45" s="4">
+        <v>3071</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>1.65890625</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="9"/>
+        <v>-0.38708001385521296</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="15"/>
+        <v>797.55108173076928</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="16"/>
+        <v>0.54018438619342235</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>105.36</v>
+      </c>
+      <c r="R45" s="7">
+        <v>224.87</v>
+      </c>
+      <c r="S45" s="7">
+        <v>2774</v>
+      </c>
+      <c r="T45" s="19">
+        <v>3.4071212121212122</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0.29817573028518662</v>
+      </c>
+      <c r="V45" s="21">
+        <f t="shared" si="17"/>
+        <v>1228.2340346507613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>102.65</v>
+      </c>
+      <c r="F46">
+        <v>216.73</v>
+      </c>
+      <c r="G46">
+        <v>2537</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>3.3864062499999998</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="9"/>
+        <v>0.25118346611245812</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="15"/>
+        <v>1628.0799278846155</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="16"/>
+        <v>1.3348073512022072</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>102.65</v>
+      </c>
+      <c r="R46" s="7">
+        <v>216.73</v>
+      </c>
+      <c r="S46" s="7">
+        <v>2537</v>
+      </c>
+      <c r="T46" s="19">
+        <v>3.2837878787878787</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0.25118346611245812</v>
+      </c>
+      <c r="V46" s="21">
+        <f t="shared" si="17"/>
+        <v>1294.3586435900193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>97.01</v>
+      </c>
+      <c r="F47">
+        <v>200.6</v>
+      </c>
+      <c r="G47">
+        <v>2789</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="14"/>
+        <v>3.1343749999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="9"/>
+        <v>0.15806488858099521</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="15"/>
+        <v>1506.9110576923076</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="16"/>
+        <v>1.1238347077805666</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>101.43</v>
+      </c>
+      <c r="R47" s="7">
+        <v>212.59</v>
+      </c>
+      <c r="S47" s="7">
+        <v>2622</v>
+      </c>
+      <c r="T47" s="19">
+        <v>3.2210606060606062</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0.22728322364623033</v>
+      </c>
+      <c r="V47" s="21">
+        <f t="shared" si="17"/>
+        <v>1228.4746781314288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>105.36</v>
+      </c>
+      <c r="F48">
+        <v>224.87</v>
+      </c>
+      <c r="G48">
+        <v>2774</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="14"/>
+        <v>3.5135937500000001</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="9"/>
+        <v>0.2981757302851864</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="15"/>
+        <v>1689.2277644230771</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="16"/>
+        <v>1.2666163482335977</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>97.01</v>
+      </c>
+      <c r="R48" s="7">
+        <v>200.6</v>
+      </c>
+      <c r="S48" s="7">
+        <v>2789</v>
+      </c>
+      <c r="T48" s="19">
+        <v>3.0393939393939391</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0.15806488858099521</v>
+      </c>
+      <c r="V48" s="21">
+        <f t="shared" si="17"/>
+        <v>1089.7791105750948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>110.57</v>
+      </c>
+      <c r="F49">
+        <v>235.02</v>
+      </c>
+      <c r="G49">
+        <v>3200</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>3.6721875000000002</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="9"/>
+        <v>0.35677173536543139</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
+        <v>1765.4747596153848</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="16"/>
+        <v>1.1475585937500001</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>67.45</v>
+      </c>
+      <c r="R49" s="7">
+        <v>146.99</v>
+      </c>
+      <c r="S49" s="7">
+        <v>4418</v>
+      </c>
+      <c r="T49" s="19">
+        <v>2.2271212121212121</v>
+      </c>
+      <c r="U49" s="8">
+        <v>-0.15142593234037638</v>
+      </c>
+      <c r="V49" s="21">
+        <f t="shared" si="17"/>
+        <v>504.10167770964512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>123.93</v>
+      </c>
+      <c r="F50">
+        <v>262.54000000000002</v>
+      </c>
+      <c r="G50">
+        <v>2824</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="14"/>
+        <v>4.1021875000000003</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="9"/>
+        <v>0.51564484470615413</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="15"/>
+        <v>1972.2055288461543</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="16"/>
+        <v>1.4526159702549575</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>58.84</v>
+      </c>
+      <c r="R50" s="7">
+        <v>128.47</v>
+      </c>
+      <c r="S50" s="7">
+        <v>3564</v>
+      </c>
+      <c r="T50" s="19">
+        <v>1.9465151515151515</v>
+      </c>
+      <c r="U50" s="8">
+        <v>-0.2583419928414733</v>
+      </c>
+      <c r="V50" s="21">
+        <f t="shared" si="17"/>
+        <v>546.16025575621529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>112.84</v>
+      </c>
+      <c r="F51">
+        <v>240.38</v>
+      </c>
+      <c r="G51">
+        <v>2789</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="14"/>
+        <v>3.7559374999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="9"/>
+        <v>0.38771504445214178</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="15"/>
+        <v>1805.7391826923076</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="16"/>
+        <v>1.3466968447472212</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>57.45</v>
+      </c>
+      <c r="R51" s="7">
+        <v>122.31</v>
+      </c>
+      <c r="S51" s="7">
+        <v>3524</v>
+      </c>
+      <c r="T51" s="19">
+        <v>1.8531818181818183</v>
+      </c>
+      <c r="U51" s="8">
+        <v>-0.29390370626948381</v>
+      </c>
+      <c r="V51" s="21">
+        <f t="shared" si="17"/>
+        <v>525.87452275306987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>63.65</v>
+      </c>
+      <c r="F52">
+        <v>132.72999999999999</v>
+      </c>
+      <c r="G52">
+        <v>4243</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>4.1478124999999997</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="9"/>
+        <v>0.5325020205518991</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="15"/>
+        <v>1994.1406249999998</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="16"/>
+        <v>0.97756599104407249</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>47.29</v>
+      </c>
+      <c r="R52" s="13">
+        <v>106.17</v>
+      </c>
+      <c r="S52" s="13">
+        <v>3071</v>
+      </c>
+      <c r="T52" s="20">
+        <v>1.6086363636363636</v>
+      </c>
+      <c r="U52" s="22">
+        <v>-0.38708001385521307</v>
+      </c>
+      <c r="V52" s="23">
+        <f t="shared" si="17"/>
+        <v>523.81516236937932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="F53">
+        <v>66.52</v>
+      </c>
+      <c r="G53">
+        <v>6543</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>4.1574999999999998</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="9"/>
+        <v>0.53608128391640686</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="15"/>
+        <v>1998.7980769230769</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="16"/>
+        <v>0.63541189057007486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P54" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="U54" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>83.44</v>
+      </c>
+      <c r="R55" s="10">
+        <v>173.22</v>
+      </c>
+      <c r="S55" s="10">
+        <v>2593</v>
+      </c>
+      <c r="T55" s="27">
+        <v>2.6245454545454545</v>
+      </c>
+      <c r="U55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="V55" s="29">
+        <f>T55/S55*1000000</f>
+        <v>1012.1656207271325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>123.93</v>
+      </c>
+      <c r="R56" s="7">
+        <v>262.54000000000002</v>
+      </c>
+      <c r="S56" s="7">
+        <v>2824</v>
+      </c>
+      <c r="T56" s="19">
+        <v>4.1021875000000003</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0.51564484470615413</v>
+      </c>
+      <c r="V56" s="21">
+        <f>T56/S56*1000000</f>
+        <v>1452.6159702549576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>112.84</v>
+      </c>
+      <c r="R57" s="7">
+        <v>240.38</v>
+      </c>
+      <c r="S57" s="7">
+        <v>2789</v>
+      </c>
+      <c r="T57" s="19">
+        <v>3.7559374999999999</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0.38771504445214178</v>
+      </c>
+      <c r="V57" s="21">
+        <f>T57/S57*1000000</f>
+        <v>1346.6968447472213</v>
+      </c>
+      <c r="W57">
+        <f>S56/S55</f>
+        <v>1.0890860007713075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="P58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>110.57</v>
+      </c>
+      <c r="R58" s="7">
+        <v>235.02</v>
+      </c>
+      <c r="S58" s="7">
+        <v>3200</v>
+      </c>
+      <c r="T58" s="19">
+        <v>3.6721875000000002</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0.35677173536543139</v>
+      </c>
+      <c r="V58" s="21">
+        <f>T58/S58*1000000</f>
+        <v>1147.55859375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>105.36</v>
+      </c>
+      <c r="R59" s="13">
+        <v>224.87</v>
+      </c>
+      <c r="S59" s="13">
+        <v>2774</v>
+      </c>
+      <c r="T59" s="20">
+        <v>3.4071212121212122</v>
+      </c>
+      <c r="U59" s="22">
+        <v>0.29817573028518662</v>
+      </c>
+      <c r="V59" s="23">
+        <f>T59/S59*1000000</f>
+        <v>1228.2340346507613</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>31</v>
+      </c>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="P61" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R61" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S61" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T61" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="U61" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V61" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>33</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>83.44</v>
+      </c>
+      <c r="R62" s="10">
+        <v>173.22</v>
+      </c>
+      <c r="S62" s="10">
+        <v>2593</v>
+      </c>
+      <c r="T62" s="27">
+        <v>2.6245454545454545</v>
+      </c>
+      <c r="U62" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="V62" s="29">
+        <f>T62/S62*1000000</f>
+        <v>1012.1656207271325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>34</v>
+      </c>
+      <c r="P63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>45.82</v>
+      </c>
+      <c r="R63" s="7">
+        <v>97.88</v>
+      </c>
+      <c r="S63" s="7">
+        <v>3083</v>
+      </c>
+      <c r="T63" s="19">
+        <v>3.0587499999999999</v>
+      </c>
+      <c r="U63" s="8">
+        <v>0.13012354231612977</v>
+      </c>
+      <c r="V63" s="21">
+        <f t="shared" ref="V63:V72" si="18">T63/S63*1000000</f>
+        <v>992.13428478754463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>35</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>23.73</v>
+      </c>
+      <c r="R64" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="S64" s="7">
+        <v>4221</v>
+      </c>
+      <c r="T64" s="19">
+        <v>3.15625</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0.1661470961782705</v>
+      </c>
+      <c r="V64" s="21">
+        <f t="shared" si="18"/>
+        <v>747.74934849561714</v>
+      </c>
+    </row>
+    <row r="65" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>12.57</v>
+      </c>
+      <c r="R65" s="7">
+        <v>26.64</v>
+      </c>
+      <c r="S65" s="7">
+        <v>6155</v>
+      </c>
+      <c r="T65" s="19">
+        <v>3.33</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0.23034291652234162</v>
+      </c>
+      <c r="V65" s="21">
+        <f t="shared" si="18"/>
+        <v>541.02355808285949</v>
+      </c>
+    </row>
+    <row r="66" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P66" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>111.69</v>
+      </c>
+      <c r="R66" s="7">
+        <v>235.9</v>
+      </c>
+      <c r="S66" s="7">
+        <v>2694</v>
+      </c>
+      <c r="T66" s="19">
+        <v>3.6859375000000001</v>
+      </c>
+      <c r="U66" s="8">
+        <v>0.36185198014086128</v>
+      </c>
+      <c r="V66" s="21">
+        <f t="shared" si="18"/>
+        <v>1368.2024870081664</v>
+      </c>
+    </row>
+    <row r="67" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P67" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>60.19</v>
+      </c>
+      <c r="R67" s="7">
+        <v>125.38</v>
+      </c>
+      <c r="S67" s="7">
+        <v>3297</v>
+      </c>
+      <c r="T67" s="19">
+        <v>3.9181249999999999</v>
+      </c>
+      <c r="U67" s="8">
+        <v>0.44763884078051031</v>
+      </c>
+      <c r="V67" s="21">
+        <f t="shared" si="18"/>
+        <v>1188.3909614801335</v>
+      </c>
+    </row>
+    <row r="68" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P68" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>32.22</v>
+      </c>
+      <c r="R68" s="7">
+        <v>67.95</v>
+      </c>
+      <c r="S68" s="7">
+        <v>4474</v>
+      </c>
+      <c r="T68" s="19">
+        <v>4.2468750000000002</v>
+      </c>
+      <c r="U68" s="8">
+        <v>0.56910287495670264</v>
+      </c>
+      <c r="V68" s="21">
+        <f t="shared" si="18"/>
+        <v>949.23446580241398</v>
+      </c>
+    </row>
+    <row r="69" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P69" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>17.53</v>
+      </c>
+      <c r="R69" s="7">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="S69" s="7">
+        <v>6717</v>
+      </c>
+      <c r="T69" s="19">
+        <v>4.6275000000000004</v>
+      </c>
+      <c r="U69" s="8">
+        <v>0.70973328714929007</v>
+      </c>
+      <c r="V69" s="21">
+        <f t="shared" si="18"/>
+        <v>688.92362661902644</v>
+      </c>
+    </row>
+    <row r="70" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P70" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>102.65</v>
+      </c>
+      <c r="R70" s="7">
+        <v>216.73</v>
+      </c>
+      <c r="S70" s="7">
+        <v>2537</v>
+      </c>
+      <c r="T70" s="19">
+        <v>3.2837878787878787</v>
+      </c>
+      <c r="U70" s="8">
+        <v>0.25118346611245812</v>
+      </c>
+      <c r="V70" s="21">
+        <f t="shared" si="18"/>
+        <v>1294.3586435900193</v>
+      </c>
+    </row>
+    <row r="71" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P71" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>63.65</v>
+      </c>
+      <c r="R71" s="7">
+        <v>132.72999999999999</v>
+      </c>
+      <c r="S71" s="7">
+        <v>4243</v>
+      </c>
+      <c r="T71" s="19">
+        <v>4.1478124999999997</v>
+      </c>
+      <c r="U71" s="8">
+        <v>0.5325020205518991</v>
+      </c>
+      <c r="V71" s="21">
+        <f t="shared" si="18"/>
+        <v>977.56599104407246</v>
+      </c>
+    </row>
+    <row r="72" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P72" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="R72" s="13">
+        <v>66.52</v>
+      </c>
+      <c r="S72" s="13">
+        <v>6543</v>
+      </c>
+      <c r="T72" s="20">
+        <v>4.1574999999999998</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0.53608128391640686</v>
+      </c>
+      <c r="V72" s="23">
+        <f t="shared" si="18"/>
+        <v>635.41189057007477</v>
+      </c>
+    </row>
+    <row r="74" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q74">
+        <v>42.98</v>
+      </c>
+      <c r="S74">
+        <v>3424</v>
+      </c>
+      <c r="T74" s="33">
+        <f>Q74/64</f>
+        <v>0.67156249999999995</v>
+      </c>
+      <c r="V74" s="34">
+        <f>T74/S74*1000000</f>
+        <v>196.13390771028037</v>
+      </c>
+    </row>
+    <row r="75" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <f>T69/T74</f>
+        <v>6.8906468124709175</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="P56:V59">
+    <sortCondition descending="1" ref="U56:U59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
